--- a/CashFlow/LHX_cashflow.xlsx
+++ b/CashFlow/LHX_cashflow.xlsx
@@ -806,19 +806,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2787000000.0</v>
+        <v>81000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>3716000000.0</v>
+        <v>60000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3962000000.0</v>
+        <v>1358000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3143000000.0</v>
+        <v>1469000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2305000000.0</v>
+        <v>1355000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1307000000.0</v>
@@ -949,19 +949,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>3722000000.0</v>
+        <v>-65000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>5129000000.0</v>
+        <v>173000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>4984000000.0</v>
+        <v>1259000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>3777000000.0</v>
+        <v>1145000000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2698000000.0</v>
+        <v>1529000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>1278000000.0</v>
@@ -4855,10 +4855,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B32" s="0" t="n">
+        <v>-2257000000.0</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>-2234000000.0</v>
